--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_1_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_1_9.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_24</t>
+          <t>model_1_9_6</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9497218164792729</v>
+        <v>0.9429760926646541</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7885873454398691</v>
+        <v>0.767918987163799</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8651024626662129</v>
+        <v>0.6552020937782022</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7753859838695697</v>
+        <v>0.7750383533850937</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8529123990995739</v>
+        <v>0.7159562135324031</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3362104447128501</v>
+        <v>0.3813191309224081</v>
       </c>
       <c r="H2" t="n">
-        <v>1.41371739450936</v>
+        <v>1.551926801470479</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1942772778719538</v>
+        <v>0.3425257021022688</v>
       </c>
       <c r="J2" t="n">
-        <v>0.741411818379949</v>
+        <v>0.1818469795453996</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4678445481259513</v>
+        <v>0.2621865092072034</v>
       </c>
       <c r="L2" t="n">
-        <v>1.531953065601215</v>
+        <v>0.9467346377056539</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5798365672436071</v>
+        <v>0.617510429808605</v>
       </c>
       <c r="N2" t="n">
-        <v>1.032612875797228</v>
+        <v>1.036988480433738</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6045214103383317</v>
+        <v>0.6437991272283683</v>
       </c>
       <c r="P2" t="n">
-        <v>124.180035983055</v>
+        <v>123.9282372809774</v>
       </c>
       <c r="Q2" t="n">
-        <v>198.5314613000153</v>
+        <v>198.2796625979376</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_23</t>
+          <t>model_1_9_7</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9494912750182017</v>
+        <v>0.943568724768018</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7883696964842225</v>
+        <v>0.767917064191121</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8675208946319829</v>
+        <v>0.6532844458700133</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7785833602803574</v>
+        <v>0.762073732033557</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8551189573230874</v>
+        <v>0.7092476940407448</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3377520765245786</v>
+        <v>0.3773561973183937</v>
       </c>
       <c r="H3" t="n">
-        <v>1.415172814077949</v>
+        <v>1.551939660397631</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1907942907966171</v>
+        <v>0.3444307127890646</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7308578347078404</v>
+        <v>0.1923268869838552</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4608261031402852</v>
+        <v>0.2683788055758022</v>
       </c>
       <c r="L3" t="n">
-        <v>1.518844508578227</v>
+        <v>0.9397426380818825</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5811644143653142</v>
+        <v>0.6142932502627664</v>
       </c>
       <c r="N3" t="n">
-        <v>1.03276241620441</v>
+        <v>1.036604070420745</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6059057866610325</v>
+        <v>0.6404449856887836</v>
       </c>
       <c r="P3" t="n">
-        <v>124.1708863080989</v>
+        <v>123.9491314342457</v>
       </c>
       <c r="Q3" t="n">
-        <v>198.5223116250592</v>
+        <v>198.300556751206</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_22</t>
+          <t>model_1_9_5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9492484674875391</v>
+        <v>0.9423340397840376</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7881391633407407</v>
+        <v>0.7678729681171016</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8698934940731551</v>
+        <v>0.6563896345728446</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7817910948426327</v>
+        <v>0.7872823818445287</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8573205394319069</v>
+        <v>0.7219565169460784</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3393757316001455</v>
+        <v>0.3856125414914719</v>
       </c>
       <c r="H4" t="n">
-        <v>1.416714390269919</v>
+        <v>1.552234531047643</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1873773109908931</v>
+        <v>0.3413459871529606</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7202696605784233</v>
+        <v>0.1719495609128467</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4538234857846582</v>
+        <v>0.2566479314203766</v>
       </c>
       <c r="L4" t="n">
-        <v>1.505410178568488</v>
+        <v>0.9523670069824894</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5825596378055602</v>
+        <v>0.6209770861243367</v>
       </c>
       <c r="N4" t="n">
-        <v>1.032919912981056</v>
+        <v>1.037404947167111</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6073604076516405</v>
+        <v>0.6474133662804286</v>
       </c>
       <c r="P4" t="n">
-        <v>124.1612948651368</v>
+        <v>123.9058443843197</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.512720182097</v>
+        <v>198.2572697012799</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_21</t>
+          <t>model_1_9_8</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9489930897144395</v>
+        <v>0.9441145449408084</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7878954872854045</v>
+        <v>0.7678692029519372</v>
       </c>
       <c r="D5" t="n">
-        <v>0.872218168771462</v>
+        <v>0.6506690121495615</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7850091195889762</v>
+        <v>0.7484570114997497</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8595166207921092</v>
+        <v>0.7018779882641342</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3410834439447692</v>
+        <v>0.3737062953096736</v>
       </c>
       <c r="H5" t="n">
-        <v>1.418343853173978</v>
+        <v>1.552259708724435</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1840293516341011</v>
+        <v>0.3470289109081198</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7096475203403323</v>
+        <v>0.2033339165715493</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4468383647729477</v>
+        <v>0.2751814096935801</v>
       </c>
       <c r="L5" t="n">
-        <v>1.491639163467535</v>
+        <v>0.932028931607931</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5840234960553978</v>
+        <v>0.611315217632993</v>
       </c>
       <c r="N5" t="n">
-        <v>1.033085563428472</v>
+        <v>1.036250024903259</v>
       </c>
       <c r="O5" t="n">
-        <v>0.608886585377778</v>
+        <v>0.6373401720445834</v>
       </c>
       <c r="P5" t="n">
-        <v>124.1512562559667</v>
+        <v>123.9685701934821</v>
       </c>
       <c r="Q5" t="n">
-        <v>198.5026815729269</v>
+        <v>198.3199955104423</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_20</t>
+          <t>model_1_9_9</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9487247143673809</v>
+        <v>0.9446156621354717</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7876382203409736</v>
+        <v>0.7677775121951159</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8744934528079694</v>
+        <v>0.6473831375496775</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7882362304182475</v>
+        <v>0.7342558746310599</v>
       </c>
       <c r="F6" t="n">
-        <v>0.861706207896858</v>
+        <v>0.6938915349761421</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3428780711263048</v>
+        <v>0.3703553223215279</v>
       </c>
       <c r="H6" t="n">
-        <v>1.420064198415993</v>
+        <v>1.552872845237495</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1807525239192672</v>
+        <v>0.3502931317285946</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6989953885221012</v>
+        <v>0.2148133571097079</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4398739001727188</v>
+        <v>0.2825533023674722</v>
       </c>
       <c r="L6" t="n">
-        <v>1.477526300034656</v>
+        <v>0.9355976335984386</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5855579144083912</v>
+        <v>0.6085682560909071</v>
       </c>
       <c r="N6" t="n">
-        <v>1.033259644734672</v>
+        <v>1.035924975912127</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6104863270967421</v>
+        <v>0.6344762666626566</v>
       </c>
       <c r="P6" t="n">
-        <v>124.1407607455585</v>
+        <v>123.9865848071351</v>
       </c>
       <c r="Q6" t="n">
-        <v>198.4921860625188</v>
+        <v>198.3380101240954</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_19</t>
+          <t>model_1_9_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9484430236947341</v>
+        <v>0.9416400155044878</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7873670144236928</v>
+        <v>0.7677768071900872</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8767181006062801</v>
+        <v>0.6568101047983755</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7914712920935604</v>
+        <v>0.7987301746452293</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8638884223555386</v>
+        <v>0.7271956609160837</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3447617379513603</v>
+        <v>0.3902534850445097</v>
       </c>
       <c r="H7" t="n">
-        <v>1.421877753633638</v>
+        <v>1.552877559609368</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1775486217056174</v>
+        <v>0.3409282878090428</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6883170123433313</v>
+        <v>0.1626957766585354</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4329328858990105</v>
+        <v>0.2518119415689092</v>
       </c>
       <c r="L7" t="n">
-        <v>1.463057308519237</v>
+        <v>0.9565370826967162</v>
       </c>
       <c r="M7" t="n">
-        <v>0.587164149068521</v>
+        <v>0.6247027173340209</v>
       </c>
       <c r="N7" t="n">
-        <v>1.033442363008821</v>
+        <v>1.03785512507817</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6121609424917178</v>
+        <v>0.6512976053238289</v>
       </c>
       <c r="P7" t="n">
-        <v>124.1298034303373</v>
+        <v>123.8819175786789</v>
       </c>
       <c r="Q7" t="n">
-        <v>198.4812287472976</v>
+        <v>198.2333428956391</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_18</t>
+          <t>model_1_9_10</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9481475912176757</v>
+        <v>0.945074301774531</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7870814135217226</v>
+        <v>0.767643947102157</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8788897077872565</v>
+        <v>0.6434552075578657</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7947132753357284</v>
+        <v>0.7195303900762435</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8660622811969042</v>
+        <v>0.6853301212934974</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3467372962857917</v>
+        <v>0.3672883969432967</v>
       </c>
       <c r="H8" t="n">
-        <v>1.423787568180184</v>
+        <v>1.553765995629123</v>
       </c>
       <c r="I8" t="n">
-        <v>0.174421107741568</v>
+        <v>0.3541951768221877</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6776157892756782</v>
+        <v>0.2267166523110436</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4260184485086231</v>
+        <v>0.2904559120152543</v>
       </c>
       <c r="L8" t="n">
-        <v>1.448238274137231</v>
+        <v>0.937924939501726</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5888440339222193</v>
+        <v>0.6060432302594401</v>
       </c>
       <c r="N8" t="n">
-        <v>1.033633994885832</v>
+        <v>1.035627479930034</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6139123435214791</v>
+        <v>0.63184374525402</v>
       </c>
       <c r="P8" t="n">
-        <v>124.1183757139618</v>
+        <v>124.0032158335816</v>
       </c>
       <c r="Q8" t="n">
-        <v>198.4698010309221</v>
+        <v>198.3546411505419</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_17</t>
+          <t>model_1_9_3</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9478380581113973</v>
+        <v>0.9408912658538993</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7867811326152065</v>
+        <v>0.7676283781789921</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8810070188721181</v>
+        <v>0.6564275349653981</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7979616797071216</v>
+        <v>0.8093017378154086</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8682271464569562</v>
+        <v>0.731618479596379</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3488071455927435</v>
+        <v>0.3952603774056703</v>
       </c>
       <c r="H9" t="n">
-        <v>1.425795547984723</v>
+        <v>1.553870105090014</v>
       </c>
       <c r="I9" t="n">
-        <v>0.171371790147599</v>
+        <v>0.3413083365224461</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6668933711767585</v>
+        <v>0.1541502896366462</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4191326171867278</v>
+        <v>0.2477294604660341</v>
       </c>
       <c r="L9" t="n">
-        <v>1.433041056323039</v>
+        <v>0.9591358907459677</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5905989718859519</v>
+        <v>0.6286973655151342</v>
       </c>
       <c r="N9" t="n">
-        <v>1.033834773116932</v>
+        <v>1.038340800527201</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6157419928275503</v>
+        <v>0.6554623139480739</v>
       </c>
       <c r="P9" t="n">
-        <v>124.1064722018788</v>
+        <v>123.8564210958828</v>
       </c>
       <c r="Q9" t="n">
-        <v>198.4578975188391</v>
+        <v>198.2078464128431</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_16</t>
+          <t>model_1_9_11</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.947513989390002</v>
+        <v>0.9454924826743007</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7864657019743632</v>
+        <v>0.76747046670894</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8830679714956764</v>
+        <v>0.6389082522844043</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8012149269584743</v>
+        <v>0.7043357906259453</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8703817935306725</v>
+        <v>0.6762302804029987</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3509741946249133</v>
+        <v>0.3644920193409902</v>
       </c>
       <c r="H10" t="n">
-        <v>1.427904834132467</v>
+        <v>1.554926059817368</v>
       </c>
       <c r="I10" t="n">
-        <v>0.168403639109102</v>
+        <v>0.3587121678461068</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6561549675730209</v>
+        <v>0.2389991549376751</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4122792870596283</v>
+        <v>0.2988555166927289</v>
       </c>
       <c r="L10" t="n">
-        <v>1.417472243840634</v>
+        <v>0.9390963908592554</v>
       </c>
       <c r="M10" t="n">
-        <v>0.592430750910951</v>
+        <v>0.6037317445198572</v>
       </c>
       <c r="N10" t="n">
-        <v>1.034044979855134</v>
+        <v>1.035356227454508</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6176517544779488</v>
+        <v>0.6294338547810679</v>
       </c>
       <c r="P10" t="n">
-        <v>124.0940851556122</v>
+        <v>124.0185012451704</v>
       </c>
       <c r="Q10" t="n">
-        <v>198.4455104725725</v>
+        <v>198.3699265621307</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_15</t>
+          <t>model_1_9_2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9471749969887677</v>
+        <v>0.9400848771624585</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7861347173908915</v>
+        <v>0.767425540561252</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8850709706380115</v>
+        <v>0.655199959793459</v>
       </c>
       <c r="E11" t="n">
-        <v>0.804472228596626</v>
+        <v>0.8189203509645643</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8725254073932288</v>
+        <v>0.7351696155321272</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3532410383728833</v>
+        <v>0.4006527022984132</v>
       </c>
       <c r="H11" t="n">
-        <v>1.430118129566186</v>
+        <v>1.555226481173824</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1655189517482804</v>
+        <v>0.3425278220241397</v>
       </c>
       <c r="J11" t="n">
-        <v>0.64540318114331</v>
+        <v>0.1463751165130968</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4054610504934943</v>
+        <v>0.2444515857894117</v>
       </c>
       <c r="L11" t="n">
-        <v>1.40151752698973</v>
+        <v>0.9600561645142789</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5943408436014501</v>
+        <v>0.6329713281803633</v>
       </c>
       <c r="N11" t="n">
-        <v>1.034264866818097</v>
+        <v>1.038863863462189</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6196431637687194</v>
+        <v>0.6599182280522842</v>
       </c>
       <c r="P11" t="n">
-        <v>124.0812092536364</v>
+        <v>123.8293206119901</v>
       </c>
       <c r="Q11" t="n">
-        <v>198.4326345705966</v>
+        <v>198.1807459289503</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_14</t>
+          <t>model_1_9_12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9468206878890238</v>
+        <v>0.9458719403464211</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7857877161007425</v>
+        <v>0.7672588703560209</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8870147320828203</v>
+        <v>0.6337667809640263</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8077323871848443</v>
+        <v>0.6887236584750815</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8746570877746421</v>
+        <v>0.6666273859541234</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3556103049543139</v>
+        <v>0.3619545841402793</v>
       </c>
       <c r="H12" t="n">
-        <v>1.432438528791206</v>
+        <v>1.55634100560365</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1627195775729349</v>
+        <v>0.363819757080475</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6346419644181066</v>
+        <v>0.2516191686983232</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3986807709955208</v>
+        <v>0.3077194647661823</v>
       </c>
       <c r="L12" t="n">
-        <v>1.385169249941054</v>
+        <v>0.9391902801646153</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5963307009992977</v>
+        <v>0.6016266152193396</v>
       </c>
       <c r="N12" t="n">
-        <v>1.034494688936849</v>
+        <v>1.035110092748267</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6217177335155661</v>
+        <v>0.6272391057680088</v>
       </c>
       <c r="P12" t="n">
-        <v>124.0678395934013</v>
+        <v>124.0324730664059</v>
       </c>
       <c r="Q12" t="n">
-        <v>198.4192649103615</v>
+        <v>198.3838983833661</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_13</t>
+          <t>model_1_9_1</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9464505767065906</v>
+        <v>0.9392180097524032</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7854242571421549</v>
+        <v>0.7671661612992476</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8888969112443973</v>
+        <v>0.6530838341850358</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8109937819845274</v>
+        <v>0.8275026938623274</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8767754728356246</v>
+        <v>0.7377890516648509</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3580852401354507</v>
+        <v>0.4064494486610103</v>
       </c>
       <c r="H13" t="n">
-        <v>1.434868980520857</v>
+        <v>1.556960951493179</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1600088932179367</v>
+        <v>0.3446300024512317</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6238766671737714</v>
+        <v>0.1394376089118446</v>
       </c>
       <c r="K13" t="n">
-        <v>0.391942780195854</v>
+        <v>0.2420337162620727</v>
       </c>
       <c r="L13" t="n">
-        <v>1.36841648163426</v>
+        <v>0.9591736734753081</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5984022394137999</v>
+        <v>0.6375338804024538</v>
       </c>
       <c r="N13" t="n">
-        <v>1.034734761055184</v>
+        <v>1.039426155836279</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6238774616090492</v>
+        <v>0.6646750175682542</v>
       </c>
       <c r="P13" t="n">
-        <v>124.0539684399719</v>
+        <v>123.8005914305296</v>
       </c>
       <c r="Q13" t="n">
-        <v>198.4053937569321</v>
+        <v>198.1520167474899</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_12</t>
+          <t>model_1_9_13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9460641834546162</v>
+        <v>0.9462144593359327</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7850439096092507</v>
+        <v>0.7670109266047431</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8907152648433728</v>
+        <v>0.6280491814515806</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8142556183429434</v>
+        <v>0.6727392398929424</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8788796186159696</v>
+        <v>0.6565516182800506</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3606690535905812</v>
+        <v>0.3596641580802603</v>
       </c>
       <c r="H14" t="n">
-        <v>1.437412366224726</v>
+        <v>1.55799900661012</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1573901294183906</v>
+        <v>0.3694996778456557</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6131099124208237</v>
+        <v>0.2645401189255731</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3852500805680789</v>
+        <v>0.3170198982905371</v>
       </c>
       <c r="L14" t="n">
-        <v>1.351253812436298</v>
+        <v>0.9382925675938981</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6005572858525497</v>
+        <v>0.5997200664312144</v>
       </c>
       <c r="N14" t="n">
-        <v>1.034985394515925</v>
+        <v>1.034887918268584</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6261242528362578</v>
+        <v>0.6252513912508731</v>
       </c>
       <c r="P14" t="n">
-        <v>124.0395889803545</v>
+        <v>124.0451691543402</v>
       </c>
       <c r="Q14" t="n">
-        <v>198.3910142973147</v>
+        <v>198.3965944713005</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_11</t>
+          <t>model_1_9_0</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9456611424080477</v>
+        <v>0.9382877274148292</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7846462109377919</v>
+        <v>0.7668481426425062</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8924688695366998</v>
+        <v>0.6500346625698117</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8175164238295329</v>
+        <v>0.834974940194699</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8809685753922936</v>
+        <v>0.7394200085638106</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3633641909248181</v>
+        <v>0.4126702509359239</v>
       </c>
       <c r="H15" t="n">
-        <v>1.440071779072006</v>
+        <v>1.55908754371515</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1548646159582001</v>
+        <v>0.3476590801500478</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6023465603965591</v>
+        <v>0.1333974440819392</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3786056929168348</v>
+        <v>0.2405282621159935</v>
       </c>
       <c r="L15" t="n">
-        <v>1.333669638518701</v>
+        <v>0.9563792143191479</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6027969732213476</v>
+        <v>0.6423941554341258</v>
       </c>
       <c r="N15" t="n">
-        <v>1.035246826546131</v>
+        <v>1.040029582217408</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6284592883331375</v>
+        <v>0.6697422045701809</v>
       </c>
       <c r="P15" t="n">
-        <v>124.0246993337649</v>
+        <v>123.7702128576304</v>
       </c>
       <c r="Q15" t="n">
-        <v>198.3761246507252</v>
+        <v>198.1216381745906</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_10</t>
+          <t>model_1_9_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9452409931731682</v>
+        <v>0.94652148702953</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7842307452002699</v>
+        <v>0.7667283678621292</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8941564165726439</v>
+        <v>0.621775064204954</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8207746614838528</v>
+        <v>0.6564215357488965</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8830412919033098</v>
+        <v>0.646030444893787</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3661737307930661</v>
+        <v>0.3576110624794427</v>
       </c>
       <c r="H16" t="n">
-        <v>1.442850000371858</v>
+        <v>1.559888478223043</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1524342376807013</v>
+        <v>0.3757324489158789</v>
       </c>
       <c r="J16" t="n">
-        <v>0.591591684340202</v>
+        <v>0.2777304793997285</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3720129610104517</v>
+        <v>0.3267314633883459</v>
       </c>
       <c r="L16" t="n">
-        <v>1.315648941194796</v>
+        <v>0.9701609367167542</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6051229055266922</v>
+        <v>0.5980059050539909</v>
       </c>
       <c r="N16" t="n">
-        <v>1.035519355779567</v>
+        <v>1.034688765170034</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6308842403920643</v>
+        <v>0.623464254475018</v>
       </c>
       <c r="P16" t="n">
-        <v>124.00929476781</v>
+        <v>124.0566186016321</v>
       </c>
       <c r="Q16" t="n">
-        <v>198.3607200847702</v>
+        <v>198.4080439185924</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_9</t>
+          <t>model_1_9_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9448031800380146</v>
+        <v>0.9467945682409398</v>
       </c>
       <c r="C17" t="n">
-        <v>0.783796970244871</v>
+        <v>0.7664127411207148</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8957742129402806</v>
+        <v>0.6149642117186374</v>
       </c>
       <c r="E17" t="n">
-        <v>0.824028351417279</v>
+        <v>0.6398104227988525</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8850958117127117</v>
+        <v>0.6350919680028524</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3691013892437827</v>
+        <v>0.3557849671613221</v>
       </c>
       <c r="H17" t="n">
-        <v>1.445750655495961</v>
+        <v>1.561999075696209</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1501043132012211</v>
+        <v>0.3824984181624843</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5808518195198993</v>
+        <v>0.2911580158811975</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3654781077260054</v>
+        <v>0.336828220327632</v>
       </c>
       <c r="L17" t="n">
-        <v>1.297195147927327</v>
+        <v>1.006161483577694</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6075371505050392</v>
+        <v>0.5964771304596029</v>
       </c>
       <c r="N17" t="n">
-        <v>1.035803342678045</v>
+        <v>1.034511631411282</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6334012647773155</v>
+        <v>0.6218703967811472</v>
       </c>
       <c r="P17" t="n">
-        <v>123.99336781017</v>
+        <v>124.0668575109087</v>
       </c>
       <c r="Q17" t="n">
-        <v>198.3447931271302</v>
+        <v>198.4182828278689</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_8</t>
+          <t>model_1_9_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9443471591253763</v>
+        <v>0.9470349935344354</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7833443668165715</v>
+        <v>0.7660656009332028</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8973216416463574</v>
+        <v>0.6076313472000165</v>
       </c>
       <c r="E18" t="n">
-        <v>0.827276790145828</v>
+        <v>0.6229356579763414</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8871316843716684</v>
+        <v>0.6237571475568331</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3721508031863781</v>
+        <v>0.3541772421166601</v>
       </c>
       <c r="H18" t="n">
-        <v>1.448777216705047</v>
+        <v>1.564320403728535</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1478757311035832</v>
+        <v>0.3897829594034213</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5701292880139813</v>
+        <v>0.3047986744542809</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3590025658153289</v>
+        <v>0.3472908220348911</v>
       </c>
       <c r="L18" t="n">
-        <v>1.278285089631101</v>
+        <v>1.042103833150674</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6100416405347902</v>
+        <v>0.5951279208007806</v>
       </c>
       <c r="N18" t="n">
-        <v>1.036099140026783</v>
+        <v>1.034355679869555</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6360123761326419</v>
+        <v>0.6204637484738997</v>
       </c>
       <c r="P18" t="n">
-        <v>123.9769122438913</v>
+        <v>124.0759156144068</v>
       </c>
       <c r="Q18" t="n">
-        <v>198.3283375608515</v>
+        <v>198.427340931367</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_7</t>
+          <t>model_1_9_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9438725998977892</v>
+        <v>0.9472439176602973</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7828724919342134</v>
+        <v>0.7656883283081996</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8987964501890497</v>
+        <v>0.5997917091499925</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8305178284854339</v>
+        <v>0.6058274283471092</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8891472816528655</v>
+        <v>0.6120474027824947</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3753241829263975</v>
+        <v>0.3527801655250148</v>
       </c>
       <c r="H19" t="n">
-        <v>1.451932646216159</v>
+        <v>1.566843227509112</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1457517354049248</v>
+        <v>0.3975709345588874</v>
       </c>
       <c r="J19" t="n">
-        <v>0.559431183905416</v>
+        <v>0.3186280535073718</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3525915142144267</v>
+        <v>0.3580994975009933</v>
       </c>
       <c r="L19" t="n">
-        <v>1.258918093398757</v>
+        <v>1.077960856127307</v>
       </c>
       <c r="M19" t="n">
-        <v>0.612637072765269</v>
+        <v>0.5939529994242093</v>
       </c>
       <c r="N19" t="n">
-        <v>1.036406962228461</v>
+        <v>1.034220161517645</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6387183012864577</v>
+        <v>0.6192388082619054</v>
       </c>
       <c r="P19" t="n">
-        <v>123.9599302773247</v>
+        <v>124.0838203531942</v>
       </c>
       <c r="Q19" t="n">
-        <v>198.311355594285</v>
+        <v>198.4352456701544</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_6</t>
+          <t>model_1_9_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9433788465684723</v>
+        <v>0.9474225570555646</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7823808161713725</v>
+        <v>0.7652823334745069</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9001965573818541</v>
+        <v>0.5914616861108251</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8337498873897286</v>
+        <v>0.5885103396628371</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8911413284127905</v>
+        <v>0.5999820986338283</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3786259137130649</v>
+        <v>0.351585603066304</v>
       </c>
       <c r="H20" t="n">
-        <v>1.455220484306236</v>
+        <v>1.569558116831449</v>
       </c>
       <c r="I20" t="n">
-        <v>0.143735323396795</v>
+        <v>0.4058460630864474</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5487627193517493</v>
+        <v>0.3326262630650451</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3462490087984147</v>
+        <v>0.3692363719125126</v>
       </c>
       <c r="L20" t="n">
-        <v>1.239081539665238</v>
+        <v>1.113710587031129</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6153258597792433</v>
+        <v>0.5929465431776325</v>
       </c>
       <c r="N20" t="n">
-        <v>1.036727234658288</v>
+        <v>1.034104287315309</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6415215555301733</v>
+        <v>0.6181895050892601</v>
       </c>
       <c r="P20" t="n">
-        <v>123.9424131927949</v>
+        <v>124.0906041218397</v>
       </c>
       <c r="Q20" t="n">
-        <v>198.2938385097552</v>
+        <v>198.4420294388</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_5</t>
+          <t>model_1_9_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9428653541413949</v>
+        <v>0.9475720008340071</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7818687965151018</v>
+        <v>0.7648488585285822</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9015202106759963</v>
+        <v>0.5826524630205365</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8369704479505351</v>
+        <v>0.5710104205596978</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8931120874660049</v>
+        <v>0.587579321650165</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3820596399373459</v>
+        <v>0.3505862718317334</v>
       </c>
       <c r="H21" t="n">
-        <v>1.458644362105352</v>
+        <v>1.572456765790816</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1418290190719363</v>
+        <v>0.4145972337563633</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5381322088309642</v>
+        <v>0.346772262968052</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3399805750686378</v>
+        <v>0.3806847504961895</v>
       </c>
       <c r="L21" t="n">
-        <v>1.218764389654807</v>
+        <v>1.14933280511743</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6181097313077557</v>
+        <v>0.5921032611223598</v>
       </c>
       <c r="N21" t="n">
-        <v>1.037060310827203</v>
+        <v>1.034007350810374</v>
       </c>
       <c r="O21" t="n">
-        <v>0.644423942233063</v>
+        <v>0.61731032277106</v>
       </c>
       <c r="P21" t="n">
-        <v>123.9243571141429</v>
+        <v>124.0962969269492</v>
       </c>
       <c r="Q21" t="n">
-        <v>198.2757824311031</v>
+        <v>198.4477222439094</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_4</t>
+          <t>model_1_9_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9423316246497233</v>
+        <v>0.9476931912938307</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7813359074956336</v>
+        <v>0.7643891587604594</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9027649676934251</v>
+        <v>0.5733793377444329</v>
       </c>
       <c r="E22" t="n">
-        <v>0.84017859275591</v>
+        <v>0.5533445140707016</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8950585221897704</v>
+        <v>0.5748540744138508</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3856286915057526</v>
+        <v>0.3497758706688618</v>
       </c>
       <c r="H22" t="n">
-        <v>1.462207793432263</v>
+        <v>1.575530780256976</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1400363399041936</v>
+        <v>0.4238092495156366</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5275426805603952</v>
+        <v>0.3610524382081213</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3337895102322944</v>
+        <v>0.3924307851240881</v>
       </c>
       <c r="L22" t="n">
-        <v>1.197961652133176</v>
+        <v>1.184812054868087</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6209900897001115</v>
+        <v>0.5914185241171109</v>
       </c>
       <c r="N22" t="n">
-        <v>1.03740651374072</v>
+        <v>1.03392874078238</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6474269234453452</v>
+        <v>0.6165964350938967</v>
       </c>
       <c r="P22" t="n">
-        <v>123.9057606231638</v>
+        <v>124.1009253982807</v>
       </c>
       <c r="Q22" t="n">
-        <v>198.2571859401241</v>
+        <v>198.452350715241</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_3</t>
+          <t>model_1_9_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9417771084317912</v>
+        <v>0.9477870943532246</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7807815851959059</v>
+        <v>0.763904383285781</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9039291404034874</v>
+        <v>0.5636553831581664</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8433714563010789</v>
+        <v>0.5355332309613781</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8969788260520181</v>
+        <v>0.5618226200806071</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3893367440083769</v>
+        <v>0.3491479404783112</v>
       </c>
       <c r="H23" t="n">
-        <v>1.465914549202962</v>
+        <v>1.578772476088336</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1383597169683421</v>
+        <v>0.433469123638332</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5170035930731385</v>
+        <v>0.3754501281432547</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3276815603629782</v>
+        <v>0.4044594640964972</v>
       </c>
       <c r="L23" t="n">
-        <v>1.176659872524946</v>
+        <v>1.220136622136913</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6239685440856589</v>
+        <v>0.590887417769503</v>
       </c>
       <c r="N23" t="n">
-        <v>1.037766199936135</v>
+        <v>1.0338678306898</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6505321768003359</v>
+        <v>0.6160427184495294</v>
       </c>
       <c r="P23" t="n">
-        <v>123.8866212880099</v>
+        <v>124.104519096761</v>
       </c>
       <c r="Q23" t="n">
-        <v>198.2380466049702</v>
+        <v>198.4559444137213</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_2</t>
+          <t>model_1_9_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9412011914814581</v>
+        <v>0.9478546389526019</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7802052897881047</v>
+        <v>0.7633956265199686</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9050110790145683</v>
+        <v>0.553492283133669</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8465475083195755</v>
+        <v>0.5175903381236805</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8988717157471662</v>
+        <v>0.5484969324430684</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3931879033071078</v>
+        <v>0.3486962694312604</v>
       </c>
       <c r="H24" t="n">
-        <v>1.469768239248525</v>
+        <v>1.582174534923934</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1368015262679049</v>
+        <v>0.4435652492487563</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5065199975127639</v>
+        <v>0.3899542043533099</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3216608072970666</v>
+        <v>0.4167597350086738</v>
       </c>
       <c r="L24" t="n">
-        <v>1.154846418849997</v>
+        <v>1.255283887871513</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6270469705748588</v>
+        <v>0.5905050968715345</v>
       </c>
       <c r="N24" t="n">
-        <v>1.038139767687703</v>
+        <v>1.033824017976691</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6537416582784024</v>
+        <v>0.615644121359421</v>
       </c>
       <c r="P24" t="n">
-        <v>123.8669353118301</v>
+        <v>124.1071080477258</v>
       </c>
       <c r="Q24" t="n">
-        <v>198.2183606287904</v>
+        <v>198.458533364686</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_1</t>
+          <t>model_1_9_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9406032988862263</v>
+        <v>0.9478965783402495</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7796064135177617</v>
+        <v>0.7628639014107368</v>
       </c>
       <c r="D25" t="n">
-        <v>0.906007386877527</v>
+        <v>0.5429020376943048</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8497043823497507</v>
+        <v>0.499532390774913</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9007353401510497</v>
+        <v>0.5348911968027762</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3971860138444652</v>
+        <v>0.3484158205529482</v>
       </c>
       <c r="H25" t="n">
-        <v>1.47377292762588</v>
+        <v>1.585730183177735</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1353666596027033</v>
+        <v>0.4540857054032092</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4960997051577693</v>
+        <v>0.4045512844848599</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3157331389431472</v>
+        <v>0.4293185041234179</v>
       </c>
       <c r="L25" t="n">
-        <v>1.132517392409116</v>
+        <v>1.290250280072065</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6302269542351114</v>
+        <v>0.5902675838574809</v>
       </c>
       <c r="N25" t="n">
-        <v>1.038527589911637</v>
+        <v>1.033796814049568</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6570570204265457</v>
+        <v>0.6153964969246393</v>
       </c>
       <c r="P25" t="n">
-        <v>123.846701118606</v>
+        <v>124.1087172517403</v>
       </c>
       <c r="Q25" t="n">
-        <v>198.1981264355663</v>
+        <v>198.4601425687005</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_0</t>
+          <t>model_1_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9399827228301122</v>
+        <v>0.9479138015513239</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7789843617510009</v>
+        <v>0.7623102162283772</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9069168308033659</v>
+        <v>0.5318952576226522</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8528395868378428</v>
+        <v>0.481374807055816</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9025680137047929</v>
+        <v>0.5210176051431754</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4013358087891905</v>
+        <v>0.3483006488611881</v>
       </c>
       <c r="H26" t="n">
-        <v>1.477932590654495</v>
+        <v>1.58943267854166</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1340568929918276</v>
+        <v>0.465019951243736</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4857509401939676</v>
+        <v>0.419228905336439</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3099039165928976</v>
+        <v>0.4421245176350419</v>
       </c>
       <c r="L26" t="n">
-        <v>1.112319804142627</v>
+        <v>1.325025562188786</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6335107014006871</v>
+        <v>0.5901700169113882</v>
       </c>
       <c r="N26" t="n">
-        <v>1.038930125731819</v>
+        <v>1.033785642236979</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6604805635072536</v>
+        <v>0.61529477635166</v>
       </c>
       <c r="P26" t="n">
-        <v>123.8259135474423</v>
+        <v>124.1093784773485</v>
       </c>
       <c r="Q26" t="n">
-        <v>198.1773388644025</v>
+        <v>198.4608037943088</v>
       </c>
     </row>
   </sheetData>
